--- a/out/_overall/mep-details.xlsx
+++ b/out/_overall/mep-details.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="mep-details" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'mep-details'!$A$1:$F$841</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -7247,7 +7250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7427,6 +7430,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -7588,8 +7597,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -7917,7 +7928,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.140625" bestFit="1" customWidth="1"/>
@@ -7926,27 +7937,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -7966,7 +7977,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -7986,7 +7997,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -8006,7 +8017,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -8026,7 +8037,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -8046,7 +8057,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -8066,7 +8077,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -8086,7 +8097,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -8106,7 +8117,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -8126,7 +8137,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -8146,7 +8157,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -8166,7 +8177,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -8186,7 +8197,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -8206,7 +8217,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -8226,7 +8237,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -8246,7 +8257,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -8266,7 +8277,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -8286,7 +8297,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -8306,7 +8317,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -8326,7 +8337,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -8346,7 +8357,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -8366,7 +8377,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -8386,7 +8397,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -8406,7 +8417,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -8426,7 +8437,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -8446,7 +8457,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -8466,7 +8477,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -8486,7 +8497,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -8506,7 +8517,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -8526,7 +8537,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -8546,7 +8557,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -8566,7 +8577,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -8586,7 +8597,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -8606,7 +8617,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -8626,7 +8637,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -8646,7 +8657,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -8666,7 +8677,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -8686,7 +8697,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -8706,7 +8717,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -8726,7 +8737,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -8746,7 +8757,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
@@ -8766,7 +8777,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
@@ -8786,7 +8797,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
@@ -8806,7 +8817,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
@@ -8826,7 +8837,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
@@ -8846,7 +8857,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
@@ -8866,7 +8877,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -8886,7 +8897,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -8906,7 +8917,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
@@ -8926,7 +8937,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
@@ -8946,7 +8957,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
@@ -8966,7 +8977,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
@@ -8986,7 +8997,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
@@ -9006,7 +9017,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
@@ -9026,7 +9037,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
@@ -9046,7 +9057,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
@@ -9066,7 +9077,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
@@ -9086,7 +9097,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
@@ -9106,7 +9117,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
@@ -9126,7 +9137,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
@@ -9146,7 +9157,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -9166,7 +9177,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
@@ -9186,7 +9197,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
@@ -9206,7 +9217,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
@@ -9226,7 +9237,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
@@ -9246,7 +9257,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
@@ -9266,7 +9277,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
@@ -9286,7 +9297,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
@@ -9306,7 +9317,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
@@ -9326,7 +9337,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
@@ -9346,7 +9357,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
@@ -9366,7 +9377,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
@@ -9386,7 +9397,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
@@ -9406,7 +9417,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
@@ -9426,7 +9437,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
@@ -9446,7 +9457,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
@@ -9466,7 +9477,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -9486,7 +9497,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -9506,7 +9517,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -9526,7 +9537,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -9546,7 +9557,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -9566,7 +9577,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -9586,7 +9597,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -9606,7 +9617,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -9626,7 +9637,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -9646,7 +9657,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -9666,7 +9677,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -9686,7 +9697,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -9706,7 +9717,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -9726,7 +9737,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -9746,7 +9757,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -9766,7 +9777,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -9786,7 +9797,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -9806,7 +9817,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -9826,7 +9837,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -9846,7 +9857,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -9866,7 +9877,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -9886,7 +9897,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -9906,7 +9917,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -9926,7 +9937,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -9946,7 +9957,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -9966,7 +9977,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -9986,7 +9997,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -10006,7 +10017,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -10026,7 +10037,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -10046,7 +10057,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -10066,7 +10077,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -10086,7 +10097,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -10106,7 +10117,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -10126,7 +10137,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -10146,7 +10157,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" t="s">
@@ -10166,7 +10177,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" t="s">
@@ -10186,7 +10197,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" t="s">
@@ -10206,7 +10217,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" t="s">
@@ -10226,7 +10237,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" t="s">
@@ -10246,7 +10257,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" t="s">
@@ -10266,7 +10277,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" t="s">
@@ -10286,7 +10297,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" t="s">
@@ -10306,7 +10317,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" t="s">
@@ -10326,7 +10337,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" t="s">
@@ -10346,7 +10357,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" t="s">
@@ -10366,7 +10377,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" t="s">
@@ -10386,7 +10397,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" t="s">
@@ -10406,7 +10417,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" t="s">
@@ -10426,7 +10437,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" t="s">
@@ -10446,7 +10457,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" t="s">
@@ -10466,7 +10477,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" t="s">
@@ -10486,7 +10497,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" t="s">
@@ -10506,7 +10517,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" t="s">
@@ -10526,7 +10537,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" t="s">
@@ -10546,7 +10557,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" t="s">
@@ -10566,7 +10577,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" t="s">
@@ -10586,7 +10597,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" t="s">
@@ -10606,7 +10617,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" t="s">
@@ -10626,7 +10637,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" t="s">
@@ -10646,7 +10657,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" t="s">
@@ -10666,7 +10677,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" t="s">
@@ -10686,7 +10697,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" t="s">
@@ -10706,7 +10717,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" t="s">
@@ -10726,7 +10737,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" t="s">
@@ -10746,7 +10757,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" t="s">
@@ -10766,7 +10777,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" t="s">
@@ -10786,7 +10797,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" t="s">
@@ -10806,7 +10817,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" t="s">
@@ -10826,7 +10837,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" t="s">
@@ -10846,7 +10857,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" t="s">
@@ -10866,7 +10877,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" t="s">
@@ -10886,7 +10897,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" t="s">
@@ -10906,7 +10917,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" t="s">
@@ -10926,7 +10937,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" t="s">
@@ -10946,7 +10957,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" t="s">
@@ -10966,7 +10977,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" t="s">
@@ -10986,7 +10997,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" t="s">
@@ -11006,7 +11017,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" t="s">
@@ -11026,7 +11037,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" t="s">
@@ -11046,7 +11057,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -11066,7 +11077,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -11086,7 +11097,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" t="s">
@@ -11106,7 +11117,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" t="s">
@@ -11126,7 +11137,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" t="s">
@@ -11146,7 +11157,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" t="s">
@@ -11166,7 +11177,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" t="s">
@@ -11186,7 +11197,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" t="s">
@@ -11206,7 +11217,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" t="s">
@@ -11226,7 +11237,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" t="s">
@@ -11246,7 +11257,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" t="s">
@@ -11266,7 +11277,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" t="s">
@@ -11286,7 +11297,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" t="s">
@@ -11306,7 +11317,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" t="s">
@@ -11326,7 +11337,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" t="s">
@@ -11346,7 +11357,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" t="s">
@@ -11366,7 +11377,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" t="s">
@@ -11386,7 +11397,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" t="s">
@@ -11406,7 +11417,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" t="s">
@@ -11426,7 +11437,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" t="s">
@@ -11446,7 +11457,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" t="s">
@@ -11466,7 +11477,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" t="s">
@@ -11486,7 +11497,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" t="s">
@@ -11506,7 +11517,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" t="s">
@@ -11526,7 +11537,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" t="s">
@@ -11546,7 +11557,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" t="s">
@@ -11566,7 +11577,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" t="s">
@@ -11586,7 +11597,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" t="s">
@@ -11606,7 +11617,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" t="s">
@@ -11626,7 +11637,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" t="s">
@@ -11646,7 +11657,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" t="s">
@@ -11666,7 +11677,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" t="s">
@@ -11686,7 +11697,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" t="s">
@@ -11706,7 +11717,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" t="s">
@@ -11726,7 +11737,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" t="s">
@@ -11746,7 +11757,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" t="s">
@@ -11766,7 +11777,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" t="s">
@@ -11786,7 +11797,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" t="s">
@@ -11806,7 +11817,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" t="s">
@@ -11826,7 +11837,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" t="s">
@@ -11846,7 +11857,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" t="s">
@@ -11866,7 +11877,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" t="s">
@@ -11886,7 +11897,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" t="s">
@@ -11906,7 +11917,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" t="s">
@@ -11926,7 +11937,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" t="s">
@@ -11946,7 +11957,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" t="s">
@@ -11966,7 +11977,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" t="s">
@@ -11986,7 +11997,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" t="s">
@@ -12006,7 +12017,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" t="s">
@@ -12026,7 +12037,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" t="s">
@@ -12046,7 +12057,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" t="s">
@@ -12066,7 +12077,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" t="s">
@@ -12086,7 +12097,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" t="s">
@@ -12106,7 +12117,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" t="s">
@@ -12126,7 +12137,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" t="s">
@@ -12146,7 +12157,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" t="s">
@@ -12166,7 +12177,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" t="s">
@@ -12186,7 +12197,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" t="s">
@@ -12206,7 +12217,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" t="s">
@@ -12226,7 +12237,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" t="s">
@@ -12246,7 +12257,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" t="s">
@@ -12266,7 +12277,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" t="s">
@@ -12286,7 +12297,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" t="s">
@@ -12306,7 +12317,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" t="s">
@@ -12326,7 +12337,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" t="s">
@@ -12346,7 +12357,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" t="s">
@@ -12366,7 +12377,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" t="s">
@@ -12386,7 +12397,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" t="s">
@@ -12406,7 +12417,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" t="s">
@@ -12426,7 +12437,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" t="s">
@@ -12446,7 +12457,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" t="s">
@@ -12466,7 +12477,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" t="s">
@@ -12486,7 +12497,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" t="s">
@@ -12506,7 +12517,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" t="s">
@@ -12526,7 +12537,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" t="s">
@@ -12546,7 +12557,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" t="s">
@@ -12566,7 +12577,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" t="s">
@@ -12586,7 +12597,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" t="s">
@@ -12606,7 +12617,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" t="s">
@@ -12626,7 +12637,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" t="s">
@@ -12646,7 +12657,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" t="s">
@@ -12666,7 +12677,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" t="s">
@@ -12686,7 +12697,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" t="s">
@@ -12706,7 +12717,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" t="s">
@@ -12726,7 +12737,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" t="s">
@@ -12746,7 +12757,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" t="s">
@@ -12766,7 +12777,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" t="s">
@@ -12786,7 +12797,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" t="s">
@@ -12806,7 +12817,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" t="s">
@@ -12826,7 +12837,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" t="s">
@@ -12846,7 +12857,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" t="s">
@@ -12866,7 +12877,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" t="s">
@@ -12886,7 +12897,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" t="s">
@@ -12906,7 +12917,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" t="s">
@@ -12926,7 +12937,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" t="s">
@@ -12946,7 +12957,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" t="s">
@@ -12966,7 +12977,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" t="s">
@@ -12986,7 +12997,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" t="s">
@@ -13006,7 +13017,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" t="s">
@@ -13026,7 +13037,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" t="s">
@@ -13046,7 +13057,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" t="s">
@@ -13066,7 +13077,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" t="s">
@@ -13086,7 +13097,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" t="s">
@@ -13106,7 +13117,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" t="s">
@@ -13126,7 +13137,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" t="s">
@@ -13146,7 +13157,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" t="s">
@@ -13166,7 +13177,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" t="s">
@@ -13186,7 +13197,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" t="s">
@@ -13206,7 +13217,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" t="s">
@@ -13226,7 +13237,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" t="s">
@@ -13246,7 +13257,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" t="s">
@@ -13266,7 +13277,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" t="s">
@@ -13286,7 +13297,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" t="s">
@@ -13306,7 +13317,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" t="s">
@@ -13326,7 +13337,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" t="s">
@@ -13346,7 +13357,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" t="s">
@@ -13366,7 +13377,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" t="s">
@@ -13386,7 +13397,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" t="s">
@@ -13406,7 +13417,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" t="s">
@@ -13426,7 +13437,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" t="s">
@@ -13446,7 +13457,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" t="s">
@@ -13466,7 +13477,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" t="s">
@@ -13486,7 +13497,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" t="s">
@@ -13506,7 +13517,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" t="s">
@@ -13526,7 +13537,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" t="s">
@@ -13546,7 +13557,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" t="s">
@@ -13566,7 +13577,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" t="s">
@@ -13586,7 +13597,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" t="s">
@@ -13606,7 +13617,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" t="s">
@@ -13626,7 +13637,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" t="s">
@@ -13646,7 +13657,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" t="s">
@@ -13666,7 +13677,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" t="s">
@@ -13686,7 +13697,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" t="s">
@@ -13706,7 +13717,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" t="s">
@@ -13726,7 +13737,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" t="s">
@@ -13746,7 +13757,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" t="s">
@@ -13766,7 +13777,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" t="s">
@@ -13786,7 +13797,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" t="s">
@@ -13806,7 +13817,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" t="s">
@@ -13826,7 +13837,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" t="s">
@@ -13846,7 +13857,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" t="s">
@@ -13866,7 +13877,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" t="s">
@@ -13886,7 +13897,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" t="s">
@@ -13906,7 +13917,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" t="s">
@@ -13926,7 +13937,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" t="s">
@@ -13946,7 +13957,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" t="s">
@@ -13966,7 +13977,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" t="s">
@@ -13986,7 +13997,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" t="s">
@@ -14006,7 +14017,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" t="s">
@@ -14026,7 +14037,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" t="s">
@@ -14046,7 +14057,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" t="s">
@@ -14066,7 +14077,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" t="s">
@@ -14086,7 +14097,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" t="s">
@@ -14106,7 +14117,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" t="s">
@@ -14126,7 +14137,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" t="s">
@@ -14146,7 +14157,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" t="s">
@@ -14166,7 +14177,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" t="s">
@@ -14186,7 +14197,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" t="s">
@@ -14206,7 +14217,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" t="s">
@@ -14226,7 +14237,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" t="s">
@@ -14246,7 +14257,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" t="s">
@@ -14266,7 +14277,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" t="s">
@@ -14286,7 +14297,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" t="s">
@@ -14306,7 +14317,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" t="s">
@@ -14326,7 +14337,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" t="s">
@@ -14346,7 +14357,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" t="s">
@@ -14366,7 +14377,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" t="s">
@@ -14386,7 +14397,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" t="s">
@@ -14406,7 +14417,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" t="s">
@@ -14426,7 +14437,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" t="s">
@@ -14446,7 +14457,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" t="s">
@@ -14466,7 +14477,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" t="s">
@@ -14486,7 +14497,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" t="s">
@@ -14506,7 +14517,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" t="s">
@@ -14526,7 +14537,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" t="s">
@@ -14546,7 +14557,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" t="s">
@@ -14566,7 +14577,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" t="s">
@@ -14586,7 +14597,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" t="s">
@@ -14606,7 +14617,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" t="s">
@@ -14626,7 +14637,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" t="s">
@@ -14646,7 +14657,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" t="s">
@@ -14666,7 +14677,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" t="s">
@@ -14686,7 +14697,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" t="s">
@@ -14706,7 +14717,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" t="s">
@@ -14726,7 +14737,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" t="s">
@@ -14746,7 +14757,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" t="s">
@@ -14766,7 +14777,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" t="s">
@@ -14786,7 +14797,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" t="s">
@@ -14806,7 +14817,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" t="s">
@@ -14826,7 +14837,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" t="s">
@@ -14846,7 +14857,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" t="s">
@@ -14866,7 +14877,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" t="s">
@@ -14886,7 +14897,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" t="s">
@@ -14906,7 +14917,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" t="s">
@@ -14926,7 +14937,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" t="s">
@@ -14946,7 +14957,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" t="s">
@@ -14966,7 +14977,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" t="s">
@@ -14986,7 +14997,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" t="s">
@@ -15006,7 +15017,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" t="s">
@@ -15026,7 +15037,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" t="s">
@@ -15046,7 +15057,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" t="s">
@@ -15066,7 +15077,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" t="s">
@@ -15086,7 +15097,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" t="s">
@@ -15106,7 +15117,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" t="s">
@@ -15126,7 +15137,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" t="s">
@@ -15146,7 +15157,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" t="s">
@@ -15166,7 +15177,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" t="s">
@@ -15186,7 +15197,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" t="s">
@@ -15206,7 +15217,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" t="s">
@@ -15226,7 +15237,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" t="s">
@@ -15246,7 +15257,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" t="s">
@@ -15266,7 +15277,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" t="s">
@@ -15286,7 +15297,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" t="s">
@@ -15306,7 +15317,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" t="s">
@@ -15326,7 +15337,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" t="s">
@@ -15346,7 +15357,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" t="s">
@@ -15366,7 +15377,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" t="s">
@@ -15386,7 +15397,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" t="s">
@@ -15406,7 +15417,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" t="s">
@@ -15426,7 +15437,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" t="s">
@@ -15446,7 +15457,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" t="s">
@@ -15466,7 +15477,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" t="s">
@@ -15486,7 +15497,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" t="s">
@@ -15506,7 +15517,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" t="s">
@@ -15526,7 +15537,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" t="s">
@@ -15546,7 +15557,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" t="s">
@@ -15566,7 +15577,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" t="s">
@@ -15586,7 +15597,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" t="s">
@@ -15606,7 +15617,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" t="s">
@@ -15626,7 +15637,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" t="s">
@@ -15646,7 +15657,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" t="s">
@@ -15666,7 +15677,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" t="s">
@@ -15686,7 +15697,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" t="s">
@@ -15706,7 +15717,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" t="s">
@@ -15726,7 +15737,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" t="s">
@@ -15746,7 +15757,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" t="s">
@@ -15766,7 +15777,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" t="s">
@@ -15786,7 +15797,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" t="s">
@@ -15806,7 +15817,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" t="s">
@@ -15826,7 +15837,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" t="s">
@@ -15846,7 +15857,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" t="s">
@@ -15866,7 +15877,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" t="s">
@@ -15886,7 +15897,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" t="s">
@@ -15906,7 +15917,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" t="s">
@@ -15926,7 +15937,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" t="s">
@@ -15946,7 +15957,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" t="s">
@@ -15966,7 +15977,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" t="s">
@@ -15986,7 +15997,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" t="s">
@@ -16006,7 +16017,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" t="s">
@@ -16026,7 +16037,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" t="s">
@@ -16046,7 +16057,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" t="s">
@@ -16066,7 +16077,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" t="s">
@@ -16086,7 +16097,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" t="s">
@@ -16106,7 +16117,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" t="s">
@@ -16126,7 +16137,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" t="s">
@@ -16146,7 +16157,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" t="s">
@@ -16166,7 +16177,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" t="s">
@@ -16186,7 +16197,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" t="s">
@@ -16206,7 +16217,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" t="s">
@@ -16226,7 +16237,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" t="s">
@@ -16246,7 +16257,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" t="s">
@@ -16266,7 +16277,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" t="s">
@@ -16286,7 +16297,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" t="s">
@@ -16306,7 +16317,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" t="s">
@@ -16326,7 +16337,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" t="s">
@@ -16346,7 +16357,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" t="s">
@@ -16366,7 +16377,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" t="s">
@@ -16386,7 +16397,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" t="s">
@@ -16406,7 +16417,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" t="s">
@@ -16426,7 +16437,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" t="s">
@@ -16446,7 +16457,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" t="s">
@@ -16466,7 +16477,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" t="s">
@@ -16486,7 +16497,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" t="s">
@@ -16506,7 +16517,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" t="s">
@@ -16526,7 +16537,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" t="s">
@@ -16546,7 +16557,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" t="s">
@@ -16566,7 +16577,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" t="s">
@@ -16586,7 +16597,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" t="s">
@@ -16606,7 +16617,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" t="s">
@@ -16626,7 +16637,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" t="s">
@@ -16646,7 +16657,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" t="s">
@@ -16666,7 +16677,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" t="s">
@@ -16686,7 +16697,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" t="s">
@@ -16706,7 +16717,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" t="s">
@@ -16726,7 +16737,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" t="s">
@@ -16746,7 +16757,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" t="s">
@@ -16766,7 +16777,7 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" t="s">
@@ -16786,7 +16797,7 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" t="s">
@@ -16806,7 +16817,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" t="s">
@@ -16826,7 +16837,7 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" t="s">
@@ -16846,7 +16857,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" t="s">
@@ -16866,7 +16877,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" t="s">
@@ -16886,7 +16897,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" t="s">
@@ -16906,7 +16917,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" t="s">
@@ -16926,7 +16937,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" t="s">
@@ -16946,7 +16957,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" t="s">
@@ -16966,7 +16977,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" t="s">
@@ -16986,7 +16997,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" t="s">
@@ -17006,7 +17017,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" t="s">
@@ -17026,7 +17037,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" t="s">
@@ -17046,7 +17057,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" t="s">
@@ -17066,7 +17077,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" t="s">
@@ -17086,7 +17097,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" t="s">
@@ -17106,7 +17117,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" t="s">
@@ -17126,7 +17137,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" t="s">
@@ -17146,7 +17157,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" t="s">
@@ -17166,7 +17177,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" t="s">
@@ -17186,7 +17197,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" t="s">
@@ -17206,7 +17217,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" t="s">
@@ -17226,7 +17237,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" t="s">
@@ -17246,7 +17257,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" t="s">
@@ -17266,7 +17277,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" t="s">
@@ -17286,7 +17297,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" t="s">
@@ -17306,7 +17317,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" t="s">
@@ -17326,7 +17337,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" t="s">
@@ -17346,7 +17357,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" t="s">
@@ -17366,7 +17377,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" t="s">
@@ -17386,7 +17397,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" t="s">
@@ -17406,7 +17417,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" t="s">
@@ -17426,7 +17437,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" t="s">
@@ -17446,7 +17457,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" t="s">
@@ -17466,7 +17477,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" t="s">
@@ -17486,7 +17497,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" t="s">
@@ -17506,7 +17517,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" t="s">
@@ -17526,7 +17537,7 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" t="s">
@@ -17546,7 +17557,7 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" t="s">
@@ -17566,7 +17577,7 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" t="s">
@@ -17586,7 +17597,7 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" t="s">
@@ -17606,7 +17617,7 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" t="s">
@@ -17626,7 +17637,7 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" t="s">
@@ -17646,7 +17657,7 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" t="s">
@@ -17666,7 +17677,7 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" t="s">
@@ -17686,7 +17697,7 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" t="s">
@@ -17706,7 +17717,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" t="s">
@@ -17726,7 +17737,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" t="s">
@@ -17746,7 +17757,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" t="s">
@@ -17766,7 +17777,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" t="s">
@@ -17786,7 +17797,7 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" t="s">
@@ -17806,7 +17817,7 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" t="s">
@@ -17826,7 +17837,7 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" t="s">
@@ -17846,7 +17857,7 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" t="s">
@@ -17866,7 +17877,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" t="s">
@@ -17886,7 +17897,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" t="s">
@@ -17906,7 +17917,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" t="s">
@@ -17926,7 +17937,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="1">
         <v>500</v>
       </c>
       <c r="B501" t="s">
@@ -17946,7 +17957,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="1">
         <v>501</v>
       </c>
       <c r="B502" t="s">
@@ -17966,7 +17977,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="1">
         <v>502</v>
       </c>
       <c r="B503" t="s">
@@ -17986,7 +17997,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="1">
         <v>503</v>
       </c>
       <c r="B504" t="s">
@@ -18006,7 +18017,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="1">
         <v>504</v>
       </c>
       <c r="B505" t="s">
@@ -18026,7 +18037,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="1">
         <v>505</v>
       </c>
       <c r="B506" t="s">
@@ -18046,7 +18057,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="1">
         <v>506</v>
       </c>
       <c r="B507" t="s">
@@ -18066,7 +18077,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="1">
         <v>507</v>
       </c>
       <c r="B508" t="s">
@@ -18086,7 +18097,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="1">
         <v>508</v>
       </c>
       <c r="B509" t="s">
@@ -18106,7 +18117,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="1">
         <v>509</v>
       </c>
       <c r="B510" t="s">
@@ -18126,7 +18137,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="1">
         <v>510</v>
       </c>
       <c r="B511" t="s">
@@ -18146,7 +18157,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="1">
         <v>511</v>
       </c>
       <c r="B512" t="s">
@@ -18166,7 +18177,7 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="1">
         <v>512</v>
       </c>
       <c r="B513" t="s">
@@ -18186,7 +18197,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="1">
         <v>513</v>
       </c>
       <c r="B514" t="s">
@@ -18206,7 +18217,7 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="1">
         <v>514</v>
       </c>
       <c r="B515" t="s">
@@ -18226,7 +18237,7 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="1">
         <v>515</v>
       </c>
       <c r="B516" t="s">
@@ -18246,7 +18257,7 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="1">
         <v>516</v>
       </c>
       <c r="B517" t="s">
@@ -18266,7 +18277,7 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="1">
         <v>517</v>
       </c>
       <c r="B518" t="s">
@@ -18286,7 +18297,7 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="1">
         <v>518</v>
       </c>
       <c r="B519" t="s">
@@ -18306,7 +18317,7 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="1">
         <v>519</v>
       </c>
       <c r="B520" t="s">
@@ -18326,7 +18337,7 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="1">
         <v>520</v>
       </c>
       <c r="B521" t="s">
@@ -18346,7 +18357,7 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="1">
         <v>521</v>
       </c>
       <c r="B522" t="s">
@@ -18366,7 +18377,7 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="1">
         <v>522</v>
       </c>
       <c r="B523" t="s">
@@ -18386,7 +18397,7 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="1">
         <v>523</v>
       </c>
       <c r="B524" t="s">
@@ -18406,7 +18417,7 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="1">
         <v>524</v>
       </c>
       <c r="B525" t="s">
@@ -18426,7 +18437,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="1">
         <v>525</v>
       </c>
       <c r="B526" t="s">
@@ -18446,7 +18457,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="1">
         <v>526</v>
       </c>
       <c r="B527" t="s">
@@ -18466,7 +18477,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="1">
         <v>527</v>
       </c>
       <c r="B528" t="s">
@@ -18486,7 +18497,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="1">
         <v>528</v>
       </c>
       <c r="B529" t="s">
@@ -18506,7 +18517,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="1">
         <v>529</v>
       </c>
       <c r="B530" t="s">
@@ -18526,7 +18537,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="1">
         <v>530</v>
       </c>
       <c r="B531" t="s">
@@ -18546,7 +18557,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="1">
         <v>531</v>
       </c>
       <c r="B532" t="s">
@@ -18566,7 +18577,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="1">
         <v>532</v>
       </c>
       <c r="B533" t="s">
@@ -18586,7 +18597,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="1">
         <v>533</v>
       </c>
       <c r="B534" t="s">
@@ -18606,7 +18617,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="1">
         <v>534</v>
       </c>
       <c r="B535" t="s">
@@ -18626,7 +18637,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="1">
         <v>535</v>
       </c>
       <c r="B536" t="s">
@@ -18646,7 +18657,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="1">
         <v>536</v>
       </c>
       <c r="B537" t="s">
@@ -18666,7 +18677,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="1">
         <v>537</v>
       </c>
       <c r="B538" t="s">
@@ -18686,7 +18697,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="1">
         <v>538</v>
       </c>
       <c r="B539" t="s">
@@ -18706,7 +18717,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="1">
         <v>539</v>
       </c>
       <c r="B540" t="s">
@@ -18726,7 +18737,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="1">
         <v>540</v>
       </c>
       <c r="B541" t="s">
@@ -18746,7 +18757,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="1">
         <v>541</v>
       </c>
       <c r="B542" t="s">
@@ -18766,7 +18777,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="1">
         <v>542</v>
       </c>
       <c r="B543" t="s">
@@ -18786,7 +18797,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="1">
         <v>543</v>
       </c>
       <c r="B544" t="s">
@@ -18806,7 +18817,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="1">
         <v>544</v>
       </c>
       <c r="B545" t="s">
@@ -18826,7 +18837,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="1">
         <v>545</v>
       </c>
       <c r="B546" t="s">
@@ -18846,7 +18857,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="1">
         <v>546</v>
       </c>
       <c r="B547" t="s">
@@ -18866,7 +18877,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="1">
         <v>547</v>
       </c>
       <c r="B548" t="s">
@@ -18886,7 +18897,7 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="1">
         <v>548</v>
       </c>
       <c r="B549" t="s">
@@ -18906,7 +18917,7 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="1">
         <v>549</v>
       </c>
       <c r="B550" t="s">
@@ -18926,7 +18937,7 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551">
+      <c r="A551" s="1">
         <v>550</v>
       </c>
       <c r="B551" t="s">
@@ -18946,7 +18957,7 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="A552" s="1">
         <v>551</v>
       </c>
       <c r="B552" t="s">
@@ -18966,7 +18977,7 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="A553" s="1">
         <v>552</v>
       </c>
       <c r="B553" t="s">
@@ -18986,7 +18997,7 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="A554" s="1">
         <v>553</v>
       </c>
       <c r="B554" t="s">
@@ -19006,7 +19017,7 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="A555" s="1">
         <v>554</v>
       </c>
       <c r="B555" t="s">
@@ -19026,7 +19037,7 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="A556" s="1">
         <v>555</v>
       </c>
       <c r="B556" t="s">
@@ -19046,7 +19057,7 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="A557" s="1">
         <v>556</v>
       </c>
       <c r="B557" t="s">
@@ -19066,7 +19077,7 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="A558" s="1">
         <v>557</v>
       </c>
       <c r="B558" t="s">
@@ -19086,7 +19097,7 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="A559" s="1">
         <v>558</v>
       </c>
       <c r="B559" t="s">
@@ -19106,7 +19117,7 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="A560" s="1">
         <v>559</v>
       </c>
       <c r="B560" t="s">
@@ -19126,7 +19137,7 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="A561" s="1">
         <v>560</v>
       </c>
       <c r="B561" t="s">
@@ -19146,7 +19157,7 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562">
+      <c r="A562" s="1">
         <v>561</v>
       </c>
       <c r="B562" t="s">
@@ -19166,7 +19177,7 @@
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563">
+      <c r="A563" s="1">
         <v>562</v>
       </c>
       <c r="B563" t="s">
@@ -19186,7 +19197,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564">
+      <c r="A564" s="1">
         <v>563</v>
       </c>
       <c r="B564" t="s">
@@ -19206,7 +19217,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A565">
+      <c r="A565" s="1">
         <v>564</v>
       </c>
       <c r="B565" t="s">
@@ -19226,7 +19237,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A566">
+      <c r="A566" s="1">
         <v>565</v>
       </c>
       <c r="B566" t="s">
@@ -19246,7 +19257,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A567">
+      <c r="A567" s="1">
         <v>566</v>
       </c>
       <c r="B567" t="s">
@@ -19266,7 +19277,7 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A568">
+      <c r="A568" s="1">
         <v>567</v>
       </c>
       <c r="B568" t="s">
@@ -19286,7 +19297,7 @@
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A569">
+      <c r="A569" s="1">
         <v>568</v>
       </c>
       <c r="B569" t="s">
@@ -19306,7 +19317,7 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A570">
+      <c r="A570" s="1">
         <v>569</v>
       </c>
       <c r="B570" t="s">
@@ -19326,7 +19337,7 @@
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A571">
+      <c r="A571" s="1">
         <v>570</v>
       </c>
       <c r="B571" t="s">
@@ -19346,7 +19357,7 @@
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A572">
+      <c r="A572" s="1">
         <v>571</v>
       </c>
       <c r="B572" t="s">
@@ -19366,7 +19377,7 @@
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A573">
+      <c r="A573" s="1">
         <v>572</v>
       </c>
       <c r="B573" t="s">
@@ -19386,7 +19397,7 @@
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A574">
+      <c r="A574" s="1">
         <v>573</v>
       </c>
       <c r="B574" t="s">
@@ -19406,7 +19417,7 @@
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A575">
+      <c r="A575" s="1">
         <v>574</v>
       </c>
       <c r="B575" t="s">
@@ -19426,7 +19437,7 @@
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576">
+      <c r="A576" s="1">
         <v>575</v>
       </c>
       <c r="B576" t="s">
@@ -19446,7 +19457,7 @@
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A577">
+      <c r="A577" s="1">
         <v>576</v>
       </c>
       <c r="B577" t="s">
@@ -19466,7 +19477,7 @@
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A578">
+      <c r="A578" s="1">
         <v>577</v>
       </c>
       <c r="B578" t="s">
@@ -19486,7 +19497,7 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A579">
+      <c r="A579" s="1">
         <v>578</v>
       </c>
       <c r="B579" t="s">
@@ -19506,7 +19517,7 @@
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A580">
+      <c r="A580" s="1">
         <v>579</v>
       </c>
       <c r="B580" t="s">
@@ -19526,7 +19537,7 @@
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A581">
+      <c r="A581" s="1">
         <v>580</v>
       </c>
       <c r="B581" t="s">
@@ -19546,7 +19557,7 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582">
+      <c r="A582" s="1">
         <v>581</v>
       </c>
       <c r="B582" t="s">
@@ -19566,7 +19577,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A583">
+      <c r="A583" s="1">
         <v>582</v>
       </c>
       <c r="B583" t="s">
@@ -19586,7 +19597,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A584">
+      <c r="A584" s="1">
         <v>583</v>
       </c>
       <c r="B584" t="s">
@@ -19606,7 +19617,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A585">
+      <c r="A585" s="1">
         <v>584</v>
       </c>
       <c r="B585" t="s">
@@ -19626,7 +19637,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A586">
+      <c r="A586" s="1">
         <v>585</v>
       </c>
       <c r="B586" t="s">
@@ -19646,7 +19657,7 @@
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A587">
+      <c r="A587" s="1">
         <v>586</v>
       </c>
       <c r="B587" t="s">
@@ -19666,7 +19677,7 @@
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A588">
+      <c r="A588" s="1">
         <v>587</v>
       </c>
       <c r="B588" t="s">
@@ -19686,7 +19697,7 @@
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A589">
+      <c r="A589" s="1">
         <v>588</v>
       </c>
       <c r="B589" t="s">
@@ -19706,7 +19717,7 @@
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A590">
+      <c r="A590" s="1">
         <v>589</v>
       </c>
       <c r="B590" t="s">
@@ -19726,7 +19737,7 @@
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A591">
+      <c r="A591" s="1">
         <v>590</v>
       </c>
       <c r="B591" t="s">
@@ -19746,7 +19757,7 @@
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A592">
+      <c r="A592" s="1">
         <v>591</v>
       </c>
       <c r="B592" t="s">
@@ -19766,7 +19777,7 @@
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A593">
+      <c r="A593" s="1">
         <v>592</v>
       </c>
       <c r="B593" t="s">
@@ -19786,7 +19797,7 @@
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A594">
+      <c r="A594" s="1">
         <v>593</v>
       </c>
       <c r="B594" t="s">
@@ -19806,7 +19817,7 @@
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A595">
+      <c r="A595" s="1">
         <v>594</v>
       </c>
       <c r="B595" t="s">
@@ -19826,7 +19837,7 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A596">
+      <c r="A596" s="1">
         <v>595</v>
       </c>
       <c r="B596" t="s">
@@ -19846,7 +19857,7 @@
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A597">
+      <c r="A597" s="1">
         <v>596</v>
       </c>
       <c r="B597" t="s">
@@ -19866,7 +19877,7 @@
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A598">
+      <c r="A598" s="1">
         <v>597</v>
       </c>
       <c r="B598" t="s">
@@ -19886,7 +19897,7 @@
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A599">
+      <c r="A599" s="1">
         <v>598</v>
       </c>
       <c r="B599" t="s">
@@ -19906,7 +19917,7 @@
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A600">
+      <c r="A600" s="1">
         <v>599</v>
       </c>
       <c r="B600" t="s">
@@ -19926,7 +19937,7 @@
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A601">
+      <c r="A601" s="1">
         <v>600</v>
       </c>
       <c r="B601" t="s">
@@ -19946,7 +19957,7 @@
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A602">
+      <c r="A602" s="1">
         <v>601</v>
       </c>
       <c r="B602" t="s">
@@ -19966,7 +19977,7 @@
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A603">
+      <c r="A603" s="1">
         <v>602</v>
       </c>
       <c r="B603" t="s">
@@ -19986,7 +19997,7 @@
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A604">
+      <c r="A604" s="1">
         <v>603</v>
       </c>
       <c r="B604" t="s">
@@ -20006,7 +20017,7 @@
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A605">
+      <c r="A605" s="1">
         <v>604</v>
       </c>
       <c r="B605" t="s">
@@ -20026,7 +20037,7 @@
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A606">
+      <c r="A606" s="1">
         <v>605</v>
       </c>
       <c r="B606" t="s">
@@ -20046,7 +20057,7 @@
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A607">
+      <c r="A607" s="1">
         <v>606</v>
       </c>
       <c r="B607" t="s">
@@ -20066,7 +20077,7 @@
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A608">
+      <c r="A608" s="1">
         <v>607</v>
       </c>
       <c r="B608" t="s">
@@ -20086,7 +20097,7 @@
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A609">
+      <c r="A609" s="1">
         <v>608</v>
       </c>
       <c r="B609" t="s">
@@ -20106,7 +20117,7 @@
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A610">
+      <c r="A610" s="1">
         <v>609</v>
       </c>
       <c r="B610" t="s">
@@ -20126,7 +20137,7 @@
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A611">
+      <c r="A611" s="1">
         <v>610</v>
       </c>
       <c r="B611" t="s">
@@ -20146,7 +20157,7 @@
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A612">
+      <c r="A612" s="1">
         <v>611</v>
       </c>
       <c r="B612" t="s">
@@ -20166,7 +20177,7 @@
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A613">
+      <c r="A613" s="1">
         <v>612</v>
       </c>
       <c r="B613" t="s">
@@ -20186,7 +20197,7 @@
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A614">
+      <c r="A614" s="1">
         <v>613</v>
       </c>
       <c r="B614" t="s">
@@ -20206,7 +20217,7 @@
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A615">
+      <c r="A615" s="1">
         <v>614</v>
       </c>
       <c r="B615" t="s">
@@ -20226,7 +20237,7 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A616">
+      <c r="A616" s="1">
         <v>615</v>
       </c>
       <c r="B616" t="s">
@@ -20246,7 +20257,7 @@
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A617">
+      <c r="A617" s="1">
         <v>616</v>
       </c>
       <c r="B617" t="s">
@@ -20266,7 +20277,7 @@
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A618">
+      <c r="A618" s="1">
         <v>617</v>
       </c>
       <c r="B618" t="s">
@@ -20286,7 +20297,7 @@
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A619">
+      <c r="A619" s="1">
         <v>618</v>
       </c>
       <c r="B619" t="s">
@@ -20306,7 +20317,7 @@
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A620">
+      <c r="A620" s="1">
         <v>619</v>
       </c>
       <c r="B620" t="s">
@@ -20326,7 +20337,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A621">
+      <c r="A621" s="1">
         <v>620</v>
       </c>
       <c r="B621" t="s">
@@ -20346,7 +20357,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A622">
+      <c r="A622" s="1">
         <v>621</v>
       </c>
       <c r="B622" t="s">
@@ -20366,7 +20377,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A623">
+      <c r="A623" s="1">
         <v>622</v>
       </c>
       <c r="B623" t="s">
@@ -20386,7 +20397,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A624">
+      <c r="A624" s="1">
         <v>623</v>
       </c>
       <c r="B624" t="s">
@@ -20406,7 +20417,7 @@
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A625">
+      <c r="A625" s="1">
         <v>624</v>
       </c>
       <c r="B625" t="s">
@@ -20426,7 +20437,7 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A626">
+      <c r="A626" s="1">
         <v>625</v>
       </c>
       <c r="B626" t="s">
@@ -20446,7 +20457,7 @@
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A627">
+      <c r="A627" s="1">
         <v>626</v>
       </c>
       <c r="B627" t="s">
@@ -20466,7 +20477,7 @@
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A628">
+      <c r="A628" s="1">
         <v>627</v>
       </c>
       <c r="B628" t="s">
@@ -20486,7 +20497,7 @@
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A629">
+      <c r="A629" s="1">
         <v>628</v>
       </c>
       <c r="B629" t="s">
@@ -20506,7 +20517,7 @@
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A630">
+      <c r="A630" s="1">
         <v>629</v>
       </c>
       <c r="B630" t="s">
@@ -20526,7 +20537,7 @@
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A631">
+      <c r="A631" s="1">
         <v>630</v>
       </c>
       <c r="B631" t="s">
@@ -20546,7 +20557,7 @@
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A632">
+      <c r="A632" s="1">
         <v>631</v>
       </c>
       <c r="B632" t="s">
@@ -20566,7 +20577,7 @@
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A633">
+      <c r="A633" s="1">
         <v>632</v>
       </c>
       <c r="B633" t="s">
@@ -20586,7 +20597,7 @@
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A634">
+      <c r="A634" s="1">
         <v>633</v>
       </c>
       <c r="B634" t="s">
@@ -20606,7 +20617,7 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A635">
+      <c r="A635" s="1">
         <v>634</v>
       </c>
       <c r="B635" t="s">
@@ -20626,7 +20637,7 @@
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A636">
+      <c r="A636" s="1">
         <v>635</v>
       </c>
       <c r="B636" t="s">
@@ -20646,7 +20657,7 @@
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A637">
+      <c r="A637" s="1">
         <v>636</v>
       </c>
       <c r="B637" t="s">
@@ -20666,7 +20677,7 @@
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A638">
+      <c r="A638" s="1">
         <v>637</v>
       </c>
       <c r="B638" t="s">
@@ -20686,7 +20697,7 @@
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A639">
+      <c r="A639" s="1">
         <v>638</v>
       </c>
       <c r="B639" t="s">
@@ -20706,7 +20717,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A640">
+      <c r="A640" s="1">
         <v>639</v>
       </c>
       <c r="B640" t="s">
@@ -20726,7 +20737,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A641">
+      <c r="A641" s="1">
         <v>640</v>
       </c>
       <c r="B641" t="s">
@@ -20746,7 +20757,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A642">
+      <c r="A642" s="1">
         <v>641</v>
       </c>
       <c r="B642" t="s">
@@ -20766,7 +20777,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A643">
+      <c r="A643" s="1">
         <v>642</v>
       </c>
       <c r="B643" t="s">
@@ -20786,7 +20797,7 @@
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A644">
+      <c r="A644" s="1">
         <v>643</v>
       </c>
       <c r="B644" t="s">
@@ -20806,7 +20817,7 @@
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A645">
+      <c r="A645" s="1">
         <v>644</v>
       </c>
       <c r="B645" t="s">
@@ -20826,7 +20837,7 @@
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A646">
+      <c r="A646" s="1">
         <v>645</v>
       </c>
       <c r="B646" t="s">
@@ -20846,7 +20857,7 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A647">
+      <c r="A647" s="1">
         <v>646</v>
       </c>
       <c r="B647" t="s">
@@ -20866,7 +20877,7 @@
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A648">
+      <c r="A648" s="1">
         <v>647</v>
       </c>
       <c r="B648" t="s">
@@ -20886,7 +20897,7 @@
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A649">
+      <c r="A649" s="1">
         <v>648</v>
       </c>
       <c r="B649" t="s">
@@ -20906,7 +20917,7 @@
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A650">
+      <c r="A650" s="1">
         <v>649</v>
       </c>
       <c r="B650" t="s">
@@ -20926,7 +20937,7 @@
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A651">
+      <c r="A651" s="1">
         <v>650</v>
       </c>
       <c r="B651" t="s">
@@ -20946,7 +20957,7 @@
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A652">
+      <c r="A652" s="1">
         <v>651</v>
       </c>
       <c r="B652" t="s">
@@ -20966,7 +20977,7 @@
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A653">
+      <c r="A653" s="1">
         <v>652</v>
       </c>
       <c r="B653" t="s">
@@ -20986,7 +20997,7 @@
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A654">
+      <c r="A654" s="1">
         <v>653</v>
       </c>
       <c r="B654" t="s">
@@ -21006,7 +21017,7 @@
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A655">
+      <c r="A655" s="1">
         <v>654</v>
       </c>
       <c r="B655" t="s">
@@ -21026,7 +21037,7 @@
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A656">
+      <c r="A656" s="1">
         <v>655</v>
       </c>
       <c r="B656" t="s">
@@ -21046,7 +21057,7 @@
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A657">
+      <c r="A657" s="1">
         <v>656</v>
       </c>
       <c r="B657" t="s">
@@ -21066,7 +21077,7 @@
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A658">
+      <c r="A658" s="1">
         <v>657</v>
       </c>
       <c r="B658" t="s">
@@ -21086,7 +21097,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A659">
+      <c r="A659" s="1">
         <v>658</v>
       </c>
       <c r="B659" t="s">
@@ -21106,7 +21117,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A660">
+      <c r="A660" s="1">
         <v>659</v>
       </c>
       <c r="B660" t="s">
@@ -21126,7 +21137,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A661">
+      <c r="A661" s="1">
         <v>660</v>
       </c>
       <c r="B661" t="s">
@@ -21146,7 +21157,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A662">
+      <c r="A662" s="1">
         <v>661</v>
       </c>
       <c r="B662" t="s">
@@ -21166,7 +21177,7 @@
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A663">
+      <c r="A663" s="1">
         <v>662</v>
       </c>
       <c r="B663" t="s">
@@ -21186,7 +21197,7 @@
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A664">
+      <c r="A664" s="1">
         <v>663</v>
       </c>
       <c r="B664" t="s">
@@ -21206,7 +21217,7 @@
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A665">
+      <c r="A665" s="1">
         <v>664</v>
       </c>
       <c r="B665" t="s">
@@ -21226,7 +21237,7 @@
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A666">
+      <c r="A666" s="1">
         <v>665</v>
       </c>
       <c r="B666" t="s">
@@ -21246,7 +21257,7 @@
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A667">
+      <c r="A667" s="1">
         <v>666</v>
       </c>
       <c r="B667" t="s">
@@ -21266,7 +21277,7 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A668">
+      <c r="A668" s="1">
         <v>667</v>
       </c>
       <c r="B668" t="s">
@@ -21286,7 +21297,7 @@
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A669">
+      <c r="A669" s="1">
         <v>668</v>
       </c>
       <c r="B669" t="s">
@@ -21306,7 +21317,7 @@
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A670">
+      <c r="A670" s="1">
         <v>669</v>
       </c>
       <c r="B670" t="s">
@@ -21326,7 +21337,7 @@
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A671">
+      <c r="A671" s="1">
         <v>670</v>
       </c>
       <c r="B671" t="s">
@@ -21346,7 +21357,7 @@
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A672">
+      <c r="A672" s="1">
         <v>671</v>
       </c>
       <c r="B672" t="s">
@@ -21366,7 +21377,7 @@
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A673">
+      <c r="A673" s="1">
         <v>672</v>
       </c>
       <c r="B673" t="s">
@@ -21386,7 +21397,7 @@
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A674">
+      <c r="A674" s="1">
         <v>673</v>
       </c>
       <c r="B674" t="s">
@@ -21406,7 +21417,7 @@
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A675">
+      <c r="A675" s="1">
         <v>674</v>
       </c>
       <c r="B675" t="s">
@@ -21426,7 +21437,7 @@
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A676">
+      <c r="A676" s="1">
         <v>675</v>
       </c>
       <c r="B676" t="s">
@@ -21446,7 +21457,7 @@
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A677">
+      <c r="A677" s="1">
         <v>676</v>
       </c>
       <c r="B677" t="s">
@@ -21466,7 +21477,7 @@
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A678">
+      <c r="A678" s="1">
         <v>677</v>
       </c>
       <c r="B678" t="s">
@@ -21486,7 +21497,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A679">
+      <c r="A679" s="1">
         <v>678</v>
       </c>
       <c r="B679" t="s">
@@ -21506,7 +21517,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A680">
+      <c r="A680" s="1">
         <v>679</v>
       </c>
       <c r="B680" t="s">
@@ -21526,7 +21537,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A681">
+      <c r="A681" s="1">
         <v>680</v>
       </c>
       <c r="B681" t="s">
@@ -21546,7 +21557,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A682">
+      <c r="A682" s="1">
         <v>681</v>
       </c>
       <c r="B682" t="s">
@@ -21566,7 +21577,7 @@
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A683">
+      <c r="A683" s="1">
         <v>682</v>
       </c>
       <c r="B683" t="s">
@@ -21586,7 +21597,7 @@
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A684">
+      <c r="A684" s="1">
         <v>683</v>
       </c>
       <c r="B684" t="s">
@@ -21606,7 +21617,7 @@
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A685">
+      <c r="A685" s="1">
         <v>684</v>
       </c>
       <c r="B685" t="s">
@@ -21626,7 +21637,7 @@
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A686">
+      <c r="A686" s="1">
         <v>685</v>
       </c>
       <c r="B686" t="s">
@@ -21646,7 +21657,7 @@
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A687">
+      <c r="A687" s="1">
         <v>686</v>
       </c>
       <c r="B687" t="s">
@@ -21666,7 +21677,7 @@
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A688">
+      <c r="A688" s="1">
         <v>687</v>
       </c>
       <c r="B688" t="s">
@@ -21686,7 +21697,7 @@
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A689">
+      <c r="A689" s="1">
         <v>688</v>
       </c>
       <c r="B689" t="s">
@@ -21706,7 +21717,7 @@
       </c>
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A690">
+      <c r="A690" s="1">
         <v>689</v>
       </c>
       <c r="B690" t="s">
@@ -21726,7 +21737,7 @@
       </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A691">
+      <c r="A691" s="1">
         <v>690</v>
       </c>
       <c r="B691" t="s">
@@ -21746,7 +21757,7 @@
       </c>
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A692">
+      <c r="A692" s="1">
         <v>691</v>
       </c>
       <c r="B692" t="s">
@@ -21766,7 +21777,7 @@
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A693">
+      <c r="A693" s="1">
         <v>692</v>
       </c>
       <c r="B693" t="s">
@@ -21786,7 +21797,7 @@
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A694">
+      <c r="A694" s="1">
         <v>693</v>
       </c>
       <c r="B694" t="s">
@@ -21806,7 +21817,7 @@
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A695">
+      <c r="A695" s="1">
         <v>694</v>
       </c>
       <c r="B695" t="s">
@@ -21826,7 +21837,7 @@
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A696">
+      <c r="A696" s="1">
         <v>695</v>
       </c>
       <c r="B696" t="s">
@@ -21846,7 +21857,7 @@
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A697">
+      <c r="A697" s="1">
         <v>696</v>
       </c>
       <c r="B697" t="s">
@@ -21866,7 +21877,7 @@
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A698">
+      <c r="A698" s="1">
         <v>697</v>
       </c>
       <c r="B698" t="s">
@@ -21886,7 +21897,7 @@
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A699">
+      <c r="A699" s="1">
         <v>698</v>
       </c>
       <c r="B699" t="s">
@@ -21906,7 +21917,7 @@
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A700">
+      <c r="A700" s="1">
         <v>699</v>
       </c>
       <c r="B700" t="s">
@@ -21926,7 +21937,7 @@
       </c>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A701">
+      <c r="A701" s="1">
         <v>700</v>
       </c>
       <c r="B701" t="s">
@@ -21946,7 +21957,7 @@
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A702">
+      <c r="A702" s="1">
         <v>701</v>
       </c>
       <c r="B702" t="s">
@@ -21966,7 +21977,7 @@
       </c>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A703">
+      <c r="A703" s="1">
         <v>702</v>
       </c>
       <c r="B703" t="s">
@@ -21986,7 +21997,7 @@
       </c>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A704">
+      <c r="A704" s="1">
         <v>703</v>
       </c>
       <c r="B704" t="s">
@@ -22006,7 +22017,7 @@
       </c>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A705">
+      <c r="A705" s="1">
         <v>704</v>
       </c>
       <c r="B705" t="s">
@@ -22026,7 +22037,7 @@
       </c>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A706">
+      <c r="A706" s="1">
         <v>705</v>
       </c>
       <c r="B706" t="s">
@@ -22046,7 +22057,7 @@
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A707">
+      <c r="A707" s="1">
         <v>706</v>
       </c>
       <c r="B707" t="s">
@@ -22066,7 +22077,7 @@
       </c>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A708">
+      <c r="A708" s="1">
         <v>707</v>
       </c>
       <c r="B708" t="s">
@@ -22086,7 +22097,7 @@
       </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A709">
+      <c r="A709" s="1">
         <v>708</v>
       </c>
       <c r="B709" t="s">
@@ -22106,7 +22117,7 @@
       </c>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A710">
+      <c r="A710" s="1">
         <v>709</v>
       </c>
       <c r="B710" t="s">
@@ -22126,7 +22137,7 @@
       </c>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A711">
+      <c r="A711" s="1">
         <v>710</v>
       </c>
       <c r="B711" t="s">
@@ -22146,7 +22157,7 @@
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A712">
+      <c r="A712" s="1">
         <v>711</v>
       </c>
       <c r="B712" t="s">
@@ -22166,7 +22177,7 @@
       </c>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A713">
+      <c r="A713" s="1">
         <v>712</v>
       </c>
       <c r="B713" t="s">
@@ -22186,7 +22197,7 @@
       </c>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A714">
+      <c r="A714" s="1">
         <v>713</v>
       </c>
       <c r="B714" t="s">
@@ -22206,7 +22217,7 @@
       </c>
     </row>
     <row r="715" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A715">
+      <c r="A715" s="1">
         <v>714</v>
       </c>
       <c r="B715" t="s">
@@ -22226,7 +22237,7 @@
       </c>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A716">
+      <c r="A716" s="1">
         <v>715</v>
       </c>
       <c r="B716" t="s">
@@ -22246,7 +22257,7 @@
       </c>
     </row>
     <row r="717" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A717">
+      <c r="A717" s="1">
         <v>716</v>
       </c>
       <c r="B717" t="s">
@@ -22266,7 +22277,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A718">
+      <c r="A718" s="1">
         <v>717</v>
       </c>
       <c r="B718" t="s">
@@ -22286,7 +22297,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A719">
+      <c r="A719" s="1">
         <v>718</v>
       </c>
       <c r="B719" t="s">
@@ -22306,7 +22317,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A720">
+      <c r="A720" s="1">
         <v>719</v>
       </c>
       <c r="B720" t="s">
@@ -22326,7 +22337,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A721">
+      <c r="A721" s="1">
         <v>720</v>
       </c>
       <c r="B721" t="s">
@@ -22346,7 +22357,7 @@
       </c>
     </row>
     <row r="722" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A722">
+      <c r="A722" s="1">
         <v>721</v>
       </c>
       <c r="B722" t="s">
@@ -22366,7 +22377,7 @@
       </c>
     </row>
     <row r="723" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A723">
+      <c r="A723" s="1">
         <v>722</v>
       </c>
       <c r="B723" t="s">
@@ -22386,7 +22397,7 @@
       </c>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A724">
+      <c r="A724" s="1">
         <v>723</v>
       </c>
       <c r="B724" t="s">
@@ -22406,7 +22417,7 @@
       </c>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A725">
+      <c r="A725" s="1">
         <v>724</v>
       </c>
       <c r="B725" t="s">
@@ -22426,7 +22437,7 @@
       </c>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726">
+      <c r="A726" s="1">
         <v>725</v>
       </c>
       <c r="B726" t="s">
@@ -22446,7 +22457,7 @@
       </c>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A727">
+      <c r="A727" s="1">
         <v>726</v>
       </c>
       <c r="B727" t="s">
@@ -22466,7 +22477,7 @@
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A728">
+      <c r="A728" s="1">
         <v>727</v>
       </c>
       <c r="B728" t="s">
@@ -22486,7 +22497,7 @@
       </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A729">
+      <c r="A729" s="1">
         <v>728</v>
       </c>
       <c r="B729" t="s">
@@ -22506,7 +22517,7 @@
       </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730">
+      <c r="A730" s="1">
         <v>729</v>
       </c>
       <c r="B730" t="s">
@@ -22526,7 +22537,7 @@
       </c>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A731">
+      <c r="A731" s="1">
         <v>730</v>
       </c>
       <c r="B731" t="s">
@@ -22546,7 +22557,7 @@
       </c>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A732">
+      <c r="A732" s="1">
         <v>731</v>
       </c>
       <c r="B732" t="s">
@@ -22566,7 +22577,7 @@
       </c>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A733">
+      <c r="A733" s="1">
         <v>732</v>
       </c>
       <c r="B733" t="s">
@@ -22586,7 +22597,7 @@
       </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A734">
+      <c r="A734" s="1">
         <v>733</v>
       </c>
       <c r="B734" t="s">
@@ -22606,7 +22617,7 @@
       </c>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A735">
+      <c r="A735" s="1">
         <v>734</v>
       </c>
       <c r="B735" t="s">
@@ -22626,7 +22637,7 @@
       </c>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A736">
+      <c r="A736" s="1">
         <v>735</v>
       </c>
       <c r="B736" t="s">
@@ -22646,7 +22657,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A737">
+      <c r="A737" s="1">
         <v>736</v>
       </c>
       <c r="B737" t="s">
@@ -22666,7 +22677,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A738">
+      <c r="A738" s="1">
         <v>737</v>
       </c>
       <c r="B738" t="s">
@@ -22686,7 +22697,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A739">
+      <c r="A739" s="1">
         <v>738</v>
       </c>
       <c r="B739" t="s">
@@ -22706,7 +22717,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A740">
+      <c r="A740" s="1">
         <v>739</v>
       </c>
       <c r="B740" t="s">
@@ -22726,7 +22737,7 @@
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A741">
+      <c r="A741" s="1">
         <v>740</v>
       </c>
       <c r="B741" t="s">
@@ -22746,7 +22757,7 @@
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A742">
+      <c r="A742" s="1">
         <v>741</v>
       </c>
       <c r="B742" t="s">
@@ -22766,7 +22777,7 @@
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A743">
+      <c r="A743" s="1">
         <v>742</v>
       </c>
       <c r="B743" t="s">
@@ -22786,7 +22797,7 @@
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A744">
+      <c r="A744" s="1">
         <v>743</v>
       </c>
       <c r="B744" t="s">
@@ -22806,7 +22817,7 @@
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A745">
+      <c r="A745" s="1">
         <v>744</v>
       </c>
       <c r="B745" t="s">
@@ -22826,7 +22837,7 @@
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A746">
+      <c r="A746" s="1">
         <v>745</v>
       </c>
       <c r="B746" t="s">
@@ -22846,7 +22857,7 @@
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A747">
+      <c r="A747" s="1">
         <v>746</v>
       </c>
       <c r="B747" t="s">
@@ -22866,7 +22877,7 @@
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A748">
+      <c r="A748" s="1">
         <v>747</v>
       </c>
       <c r="B748" t="s">
@@ -22886,7 +22897,7 @@
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A749">
+      <c r="A749" s="1">
         <v>748</v>
       </c>
       <c r="B749" t="s">
@@ -22906,7 +22917,7 @@
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A750">
+      <c r="A750" s="1">
         <v>749</v>
       </c>
       <c r="B750" t="s">
@@ -22926,7 +22937,7 @@
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A751">
+      <c r="A751" s="1">
         <v>750</v>
       </c>
       <c r="B751" t="s">
@@ -22946,7 +22957,7 @@
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A752">
+      <c r="A752" s="1">
         <v>751</v>
       </c>
       <c r="B752" t="s">
@@ -22966,7 +22977,7 @@
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A753">
+      <c r="A753" s="1">
         <v>752</v>
       </c>
       <c r="B753" t="s">
@@ -22986,7 +22997,7 @@
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A754">
+      <c r="A754" s="1">
         <v>753</v>
       </c>
       <c r="B754" t="s">
@@ -23006,7 +23017,7 @@
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A755">
+      <c r="A755" s="1">
         <v>754</v>
       </c>
       <c r="B755" t="s">
@@ -23026,7 +23037,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A756">
+      <c r="A756" s="1">
         <v>755</v>
       </c>
       <c r="B756" t="s">
@@ -23046,7 +23057,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A757">
+      <c r="A757" s="1">
         <v>756</v>
       </c>
       <c r="B757" t="s">
@@ -23066,7 +23077,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A758">
+      <c r="A758" s="1">
         <v>757</v>
       </c>
       <c r="B758" t="s">
@@ -23086,7 +23097,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A759">
+      <c r="A759" s="1">
         <v>758</v>
       </c>
       <c r="B759" t="s">
@@ -23106,7 +23117,7 @@
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A760">
+      <c r="A760" s="1">
         <v>759</v>
       </c>
       <c r="B760" t="s">
@@ -23126,7 +23137,7 @@
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A761">
+      <c r="A761" s="1">
         <v>760</v>
       </c>
       <c r="B761" t="s">
@@ -23146,7 +23157,7 @@
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A762">
+      <c r="A762" s="1">
         <v>761</v>
       </c>
       <c r="B762" t="s">
@@ -23166,7 +23177,7 @@
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A763">
+      <c r="A763" s="1">
         <v>762</v>
       </c>
       <c r="B763" t="s">
@@ -23186,7 +23197,7 @@
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A764">
+      <c r="A764" s="1">
         <v>763</v>
       </c>
       <c r="B764" t="s">
@@ -23206,7 +23217,7 @@
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A765">
+      <c r="A765" s="1">
         <v>764</v>
       </c>
       <c r="B765" t="s">
@@ -23226,7 +23237,7 @@
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A766">
+      <c r="A766" s="1">
         <v>765</v>
       </c>
       <c r="B766" t="s">
@@ -23246,7 +23257,7 @@
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A767">
+      <c r="A767" s="1">
         <v>766</v>
       </c>
       <c r="B767" t="s">
@@ -23266,7 +23277,7 @@
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A768">
+      <c r="A768" s="1">
         <v>767</v>
       </c>
       <c r="B768" t="s">
@@ -23286,7 +23297,7 @@
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A769">
+      <c r="A769" s="1">
         <v>768</v>
       </c>
       <c r="B769" t="s">
@@ -23306,7 +23317,7 @@
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A770">
+      <c r="A770" s="1">
         <v>769</v>
       </c>
       <c r="B770" t="s">
@@ -23326,7 +23337,7 @@
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A771">
+      <c r="A771" s="1">
         <v>770</v>
       </c>
       <c r="B771" t="s">
@@ -23346,7 +23357,7 @@
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A772">
+      <c r="A772" s="1">
         <v>771</v>
       </c>
       <c r="B772" t="s">
@@ -23366,7 +23377,7 @@
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A773">
+      <c r="A773" s="1">
         <v>772</v>
       </c>
       <c r="B773" t="s">
@@ -23386,7 +23397,7 @@
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A774">
+      <c r="A774" s="1">
         <v>773</v>
       </c>
       <c r="B774" t="s">
@@ -23406,7 +23417,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A775">
+      <c r="A775" s="1">
         <v>774</v>
       </c>
       <c r="B775" t="s">
@@ -23426,7 +23437,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A776">
+      <c r="A776" s="1">
         <v>775</v>
       </c>
       <c r="B776" t="s">
@@ -23446,7 +23457,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A777">
+      <c r="A777" s="1">
         <v>776</v>
       </c>
       <c r="B777" t="s">
@@ -23466,7 +23477,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A778">
+      <c r="A778" s="1">
         <v>777</v>
       </c>
       <c r="B778" t="s">
@@ -23486,7 +23497,7 @@
       </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A779">
+      <c r="A779" s="1">
         <v>778</v>
       </c>
       <c r="B779" t="s">
@@ -23506,7 +23517,7 @@
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A780">
+      <c r="A780" s="1">
         <v>779</v>
       </c>
       <c r="B780" t="s">
@@ -23526,7 +23537,7 @@
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A781">
+      <c r="A781" s="1">
         <v>780</v>
       </c>
       <c r="B781" t="s">
@@ -23546,7 +23557,7 @@
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A782">
+      <c r="A782" s="1">
         <v>781</v>
       </c>
       <c r="B782" t="s">
@@ -23566,7 +23577,7 @@
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A783">
+      <c r="A783" s="1">
         <v>782</v>
       </c>
       <c r="B783" t="s">
@@ -23586,7 +23597,7 @@
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A784">
+      <c r="A784" s="1">
         <v>783</v>
       </c>
       <c r="B784" t="s">
@@ -23606,7 +23617,7 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785">
+      <c r="A785" s="1">
         <v>784</v>
       </c>
       <c r="B785" t="s">
@@ -23626,7 +23637,7 @@
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A786">
+      <c r="A786" s="1">
         <v>785</v>
       </c>
       <c r="B786" t="s">
@@ -23646,7 +23657,7 @@
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A787">
+      <c r="A787" s="1">
         <v>786</v>
       </c>
       <c r="B787" t="s">
@@ -23666,7 +23677,7 @@
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A788">
+      <c r="A788" s="1">
         <v>787</v>
       </c>
       <c r="B788" t="s">
@@ -23686,7 +23697,7 @@
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A789">
+      <c r="A789" s="1">
         <v>788</v>
       </c>
       <c r="B789" t="s">
@@ -23706,7 +23717,7 @@
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A790">
+      <c r="A790" s="1">
         <v>789</v>
       </c>
       <c r="B790" t="s">
@@ -23726,7 +23737,7 @@
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A791">
+      <c r="A791" s="1">
         <v>790</v>
       </c>
       <c r="B791" t="s">
@@ -23746,7 +23757,7 @@
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792">
+      <c r="A792" s="1">
         <v>791</v>
       </c>
       <c r="B792" t="s">
@@ -23766,7 +23777,7 @@
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A793">
+      <c r="A793" s="1">
         <v>792</v>
       </c>
       <c r="B793" t="s">
@@ -23786,7 +23797,7 @@
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A794">
+      <c r="A794" s="1">
         <v>793</v>
       </c>
       <c r="B794" t="s">
@@ -23806,7 +23817,7 @@
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A795">
+      <c r="A795" s="1">
         <v>794</v>
       </c>
       <c r="B795" t="s">
@@ -23826,7 +23837,7 @@
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796">
+      <c r="A796" s="1">
         <v>795</v>
       </c>
       <c r="B796" t="s">
@@ -23846,7 +23857,7 @@
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A797">
+      <c r="A797" s="1">
         <v>796</v>
       </c>
       <c r="B797" t="s">
@@ -23866,7 +23877,7 @@
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A798">
+      <c r="A798" s="1">
         <v>797</v>
       </c>
       <c r="B798" t="s">
@@ -23886,7 +23897,7 @@
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A799">
+      <c r="A799" s="1">
         <v>798</v>
       </c>
       <c r="B799" t="s">
@@ -23906,7 +23917,7 @@
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A800">
+      <c r="A800" s="1">
         <v>799</v>
       </c>
       <c r="B800" t="s">
@@ -23926,7 +23937,7 @@
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A801">
+      <c r="A801" s="1">
         <v>800</v>
       </c>
       <c r="B801" t="s">
@@ -23946,7 +23957,7 @@
       </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A802">
+      <c r="A802" s="1">
         <v>801</v>
       </c>
       <c r="B802" t="s">
@@ -23966,7 +23977,7 @@
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A803">
+      <c r="A803" s="1">
         <v>802</v>
       </c>
       <c r="B803" t="s">
@@ -23986,7 +23997,7 @@
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A804">
+      <c r="A804" s="1">
         <v>803</v>
       </c>
       <c r="B804" t="s">
@@ -24006,7 +24017,7 @@
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A805">
+      <c r="A805" s="1">
         <v>804</v>
       </c>
       <c r="B805" t="s">
@@ -24026,7 +24037,7 @@
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A806">
+      <c r="A806" s="1">
         <v>805</v>
       </c>
       <c r="B806" t="s">
@@ -24046,7 +24057,7 @@
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A807">
+      <c r="A807" s="1">
         <v>806</v>
       </c>
       <c r="B807" t="s">
@@ -24066,7 +24077,7 @@
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A808">
+      <c r="A808" s="1">
         <v>807</v>
       </c>
       <c r="B808" t="s">
@@ -24086,7 +24097,7 @@
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A809">
+      <c r="A809" s="1">
         <v>808</v>
       </c>
       <c r="B809" t="s">
@@ -24106,7 +24117,7 @@
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A810">
+      <c r="A810" s="1">
         <v>809</v>
       </c>
       <c r="B810" t="s">
@@ -24126,7 +24137,7 @@
       </c>
     </row>
     <row r="811" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A811">
+      <c r="A811" s="1">
         <v>810</v>
       </c>
       <c r="B811" t="s">
@@ -24146,7 +24157,7 @@
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A812">
+      <c r="A812" s="1">
         <v>811</v>
       </c>
       <c r="B812" t="s">
@@ -24166,7 +24177,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A813">
+      <c r="A813" s="1">
         <v>812</v>
       </c>
       <c r="B813" t="s">
@@ -24186,7 +24197,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A814">
+      <c r="A814" s="1">
         <v>813</v>
       </c>
       <c r="B814" t="s">
@@ -24206,7 +24217,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A815">
+      <c r="A815" s="1">
         <v>814</v>
       </c>
       <c r="B815" t="s">
@@ -24226,7 +24237,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A816">
+      <c r="A816" s="1">
         <v>815</v>
       </c>
       <c r="B816" t="s">
@@ -24246,7 +24257,7 @@
       </c>
     </row>
     <row r="817" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A817">
+      <c r="A817" s="1">
         <v>816</v>
       </c>
       <c r="B817" t="s">
@@ -24266,7 +24277,7 @@
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A818">
+      <c r="A818" s="1">
         <v>817</v>
       </c>
       <c r="B818" t="s">
@@ -24286,7 +24297,7 @@
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A819">
+      <c r="A819" s="1">
         <v>818</v>
       </c>
       <c r="B819" t="s">
@@ -24306,7 +24317,7 @@
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A820">
+      <c r="A820" s="1">
         <v>819</v>
       </c>
       <c r="B820" t="s">
@@ -24326,7 +24337,7 @@
       </c>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A821">
+      <c r="A821" s="1">
         <v>820</v>
       </c>
       <c r="B821" t="s">
@@ -24346,7 +24357,7 @@
       </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A822">
+      <c r="A822" s="1">
         <v>821</v>
       </c>
       <c r="B822" t="s">
@@ -24366,7 +24377,7 @@
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A823">
+      <c r="A823" s="1">
         <v>822</v>
       </c>
       <c r="B823" t="s">
@@ -24386,7 +24397,7 @@
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A824">
+      <c r="A824" s="1">
         <v>823</v>
       </c>
       <c r="B824" t="s">
@@ -24406,7 +24417,7 @@
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A825">
+      <c r="A825" s="1">
         <v>824</v>
       </c>
       <c r="B825" t="s">
@@ -24426,7 +24437,7 @@
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A826">
+      <c r="A826" s="1">
         <v>825</v>
       </c>
       <c r="B826" t="s">
@@ -24446,7 +24457,7 @@
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A827">
+      <c r="A827" s="1">
         <v>826</v>
       </c>
       <c r="B827" t="s">
@@ -24466,7 +24477,7 @@
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A828">
+      <c r="A828" s="1">
         <v>827</v>
       </c>
       <c r="B828" t="s">
@@ -24486,7 +24497,7 @@
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829">
+      <c r="A829" s="1">
         <v>828</v>
       </c>
       <c r="B829" t="s">
@@ -24506,7 +24517,7 @@
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A830">
+      <c r="A830" s="1">
         <v>829</v>
       </c>
       <c r="B830" t="s">
@@ -24526,7 +24537,7 @@
       </c>
     </row>
     <row r="831" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A831">
+      <c r="A831" s="1">
         <v>830</v>
       </c>
       <c r="B831" t="s">
@@ -24546,7 +24557,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A832">
+      <c r="A832" s="1">
         <v>831</v>
       </c>
       <c r="B832" t="s">
@@ -24566,7 +24577,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A833">
+      <c r="A833" s="1">
         <v>832</v>
       </c>
       <c r="B833" t="s">
@@ -24586,7 +24597,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A834">
+      <c r="A834" s="1">
         <v>833</v>
       </c>
       <c r="B834" t="s">
@@ -24606,7 +24617,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A835">
+      <c r="A835" s="1">
         <v>834</v>
       </c>
       <c r="B835" t="s">
@@ -24626,7 +24637,7 @@
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A836">
+      <c r="A836" s="1">
         <v>835</v>
       </c>
       <c r="B836" t="s">
@@ -24646,7 +24657,7 @@
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A837">
+      <c r="A837" s="1">
         <v>836</v>
       </c>
       <c r="B837" t="s">
@@ -24666,7 +24677,7 @@
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A838">
+      <c r="A838" s="1">
         <v>837</v>
       </c>
       <c r="B838" t="s">
@@ -24686,7 +24697,7 @@
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A839">
+      <c r="A839" s="1">
         <v>838</v>
       </c>
       <c r="B839" t="s">
@@ -24706,7 +24717,7 @@
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840">
+      <c r="A840" s="1">
         <v>839</v>
       </c>
       <c r="B840" t="s">
@@ -24726,7 +24737,7 @@
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A841">
+      <c r="A841" s="1">
         <v>840</v>
       </c>
       <c r="B841" t="s">
@@ -24746,6 +24757,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F841"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>